--- a/maize.xlsx
+++ b/maize.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/6A035391-95DA-4154-8200-49BDC2DE62C5/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/F1914ED8-94AF-471B-A409-D7B6E29CF6B2/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47034259-1546-E641-BD34-D05FCB56DA5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44AF73D-44AA-CF4B-8219-781DD6E9D0A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18260" yWindow="4340" windowWidth="21140" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12460" yWindow="2980" windowWidth="21140" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="maize" sheetId="2" r:id="rId1"/>
@@ -19,25 +19,25 @@
     <sheet name="watch_for" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Z_03A8949B_C78E_4E7F_9412_8C36B64964FE_.wvu.FilterData" localSheetId="0" hidden="1">maize!$A$1:$R$131</definedName>
-    <definedName name="Z_0C26BD42_2CBD_4138_9861_6D4EEF11FB87_.wvu.FilterData" localSheetId="0" hidden="1">maize!$A$1:$R$131</definedName>
-    <definedName name="Z_32787278_35C0_4446_BB99_F1281F67D683_.wvu.FilterData" localSheetId="0" hidden="1">maize!$A$1:$R$131</definedName>
-    <definedName name="Z_610B8B3C_8CF9_4F7D_B2D6_4264B7FE77F8_.wvu.FilterData" localSheetId="0" hidden="1">maize!$A$1:$R$131</definedName>
-    <definedName name="Z_8E992A79_4279_4BA5_8ACA_2AFCD1FF395F_.wvu.FilterData" localSheetId="0" hidden="1">maize!$A$1:$R$131</definedName>
-    <definedName name="Z_A1ED0A0E_827F_4174_B807_FE6BA2FB73B4_.wvu.FilterData" localSheetId="0" hidden="1">maize!$A$1:$R$131</definedName>
-    <definedName name="Z_C21AEDBF_7EB1_42BD_A502_AF69742EFC77_.wvu.FilterData" localSheetId="0" hidden="1">maize!$A$1:$R$131</definedName>
-    <definedName name="Z_DBE29AA5_4612_41A5_AA32_A789BF2A0694_.wvu.FilterData" localSheetId="0" hidden="1">maize!$A$1:$R$131</definedName>
+    <definedName name="Z_03A8949B_C78E_4E7F_9412_8C36B64964FE_.wvu.FilterData" localSheetId="0" hidden="1">maize!$A$1:$R$132</definedName>
+    <definedName name="Z_0C26BD42_2CBD_4138_9861_6D4EEF11FB87_.wvu.FilterData" localSheetId="0" hidden="1">maize!$A$1:$R$132</definedName>
+    <definedName name="Z_32787278_35C0_4446_BB99_F1281F67D683_.wvu.FilterData" localSheetId="0" hidden="1">maize!$A$1:$R$132</definedName>
+    <definedName name="Z_610B8B3C_8CF9_4F7D_B2D6_4264B7FE77F8_.wvu.FilterData" localSheetId="0" hidden="1">maize!$A$1:$R$132</definedName>
+    <definedName name="Z_8E992A79_4279_4BA5_8ACA_2AFCD1FF395F_.wvu.FilterData" localSheetId="0" hidden="1">maize!$A$1:$R$132</definedName>
+    <definedName name="Z_A1ED0A0E_827F_4174_B807_FE6BA2FB73B4_.wvu.FilterData" localSheetId="0" hidden="1">maize!$A$1:$R$132</definedName>
+    <definedName name="Z_C21AEDBF_7EB1_42BD_A502_AF69742EFC77_.wvu.FilterData" localSheetId="0" hidden="1">maize!$A$1:$R$132</definedName>
+    <definedName name="Z_DBE29AA5_4612_41A5_AA32_A789BF2A0694_.wvu.FilterData" localSheetId="0" hidden="1">maize!$A$1:$R$132</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="rnaseq" guid="{A1ED0A0E-827F-4174-B807-FE6BA2FB73B4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="atacseq" guid="{610B8B3C-8CF9-4F7D-B2D6-4264B7FE77F8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="chipseq" guid="{32787278-35C0-4446-BB99-F1281F67D683}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="dnaseq" guid="{03A8949B-C78E-4E7F-9412-8C36B64964FE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="RIL" guid="{0C26BD42-2CBD-4138-9861-6D4EEF11FB87}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="ASE" guid="{8E992A79-4279-4BA5-8ACA-2AFCD1FF395F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="stress" guid="{C21AEDBF-7EB1-42BD-A502-AF69742EFC77}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="methylseq" guid="{DBE29AA5-4612-41A5-AA32-A789BF2A0694}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="stress" guid="{C21AEDBF-7EB1-42BD-A502-AF69742EFC77}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="ASE" guid="{8E992A79-4279-4BA5-8ACA-2AFCD1FF395F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="RIL" guid="{0C26BD42-2CBD-4138-9861-6D4EEF11FB87}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="dnaseq" guid="{03A8949B-C78E-4E7F-9412-8C36B64964FE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="chipseq" guid="{32787278-35C0-4446-BB99-F1281F67D683}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="atacseq" guid="{610B8B3C-8CF9-4F7D-B2D6-4264B7FE77F8}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="rnaseq" guid="{A1ED0A0E-827F-4174-B807-FE6BA2FB73B4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="591">
   <si>
     <t>link to views</t>
   </si>
@@ -1817,6 +1817,15 @@
   </si>
   <si>
     <t>cold tolerance</t>
+  </si>
+  <si>
+    <t>dn21a</t>
+  </si>
+  <si>
+    <t>A632 resequencing</t>
+  </si>
+  <si>
+    <t>A632</t>
   </si>
 </sst>
 </file>
@@ -2306,11 +2315,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S131"/>
+  <dimension ref="A1:S132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R129" sqref="R129"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3850,11 +3859,11 @@
         <v>95</v>
       </c>
       <c r="P34" s="12" t="str">
-        <f t="shared" ref="P34:P66" si="2">HYPERLINK(CONCATENATE("", "https://orionzhou.github.io/public/multiqc/", A34, ".html"), A34)</f>
+        <f t="shared" ref="P34:P67" si="2">HYPERLINK(CONCATENATE("", "https://orionzhou.github.io/public/multiqc/", A34, ".html"), A34)</f>
         <v>cp15b</v>
       </c>
       <c r="Q34" s="12" t="str">
-        <f t="shared" ref="Q34:Q66" si="3">HYPERLINK(CONCATENATE("", "https://github.com/orionzhou/",O34,"/tree/master/data/11_qc/", A34, ""), A34)</f>
+        <f t="shared" ref="Q34:Q67" si="3">HYPERLINK(CONCATENATE("", "https://github.com/orionzhou/",O34,"/tree/master/data/11_qc/", A34, ""), A34)</f>
         <v>cp15b</v>
       </c>
       <c r="R34" s="6" t="s">
@@ -4699,61 +4708,59 @@
       <c r="R52" s="11"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>134</v>
+      <c r="A53" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21" t="s">
+        <v>431</v>
       </c>
       <c r="E53" s="8">
-        <v>2012</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P53" s="12" t="str">
+        <v>2021</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="I53" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="J53" s="21"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P53" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>cp12a2</v>
-      </c>
-      <c r="Q53" s="12" t="str">
+        <v>dn21a</v>
+      </c>
+      <c r="Q53" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>cp12a2</v>
-      </c>
-      <c r="R53" s="6" t="s">
-        <v>96</v>
-      </c>
+        <v>dn21a</v>
+      </c>
+      <c r="R53" s="11"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E54" s="8">
         <v>2012</v>
@@ -4762,7 +4769,7 @@
         <v>40</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -4776,11 +4783,11 @@
       </c>
       <c r="P54" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>cp12b2</v>
+        <v>cp12a2</v>
       </c>
       <c r="Q54" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>cp12b2</v>
+        <v>cp12a2</v>
       </c>
       <c r="R54" s="6" t="s">
         <v>96</v>
@@ -4788,24 +4795,26 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E55" s="8">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G55" s="9"/>
+      <c r="G55" s="5" t="s">
+        <v>248</v>
+      </c>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -4818,11 +4827,11 @@
       </c>
       <c r="P55" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>cp14g2</v>
+        <v>cp12b2</v>
       </c>
       <c r="Q55" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>cp14g2</v>
+        <v>cp12b2</v>
       </c>
       <c r="R55" s="6" t="s">
         <v>96</v>
@@ -4830,19 +4839,19 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E56" s="8">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>40</v>
@@ -4860,11 +4869,11 @@
       </c>
       <c r="P56" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>cp15a2</v>
+        <v>cp14g2</v>
       </c>
       <c r="Q56" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>cp15a2</v>
+        <v>cp14g2</v>
       </c>
       <c r="R56" s="6" t="s">
         <v>96</v>
@@ -4872,16 +4881,16 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="E57" s="8">
         <v>2015</v>
@@ -4902,11 +4911,11 @@
       </c>
       <c r="P57" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>cp15b2</v>
+        <v>cp15a2</v>
       </c>
       <c r="Q57" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>cp15b2</v>
+        <v>cp15a2</v>
       </c>
       <c r="R57" s="6" t="s">
         <v>96</v>
@@ -4914,19 +4923,19 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>253</v>
+        <v>159</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="E58" s="8">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>40</v>
@@ -4944,11 +4953,11 @@
       </c>
       <c r="P58" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>cp16a2</v>
+        <v>cp15b2</v>
       </c>
       <c r="Q58" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>cp16a2</v>
+        <v>cp15b2</v>
       </c>
       <c r="R58" s="6" t="s">
         <v>96</v>
@@ -4956,16 +4965,16 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="E59" s="8">
         <v>2016</v>
@@ -4973,9 +4982,7 @@
       <c r="F59" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G59" s="5" t="s">
-        <v>257</v>
-      </c>
+      <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -4988,11 +4995,11 @@
       </c>
       <c r="P59" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>cp16b2</v>
+        <v>cp16a2</v>
       </c>
       <c r="Q59" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>cp16b2</v>
+        <v>cp16a2</v>
       </c>
       <c r="R59" s="6" t="s">
         <v>96</v>
@@ -5000,24 +5007,26 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>159</v>
+        <v>255</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>170</v>
+        <v>256</v>
       </c>
       <c r="E60" s="8">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G60" s="9"/>
+      <c r="G60" s="5" t="s">
+        <v>257</v>
+      </c>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -5030,11 +5039,11 @@
       </c>
       <c r="P60" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>cp18a2</v>
+        <v>cp16b2</v>
       </c>
       <c r="Q60" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>cp18a2</v>
+        <v>cp16b2</v>
       </c>
       <c r="R60" s="6" t="s">
         <v>96</v>
@@ -5042,16 +5051,16 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="E61" s="8">
         <v>2018</v>
@@ -5072,11 +5081,11 @@
       </c>
       <c r="P61" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>cp18b2</v>
+        <v>cp18a2</v>
       </c>
       <c r="Q61" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>cp18b2</v>
+        <v>cp18a2</v>
       </c>
       <c r="R61" s="6" t="s">
         <v>96</v>
@@ -5084,28 +5093,26 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="E62" s="8">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G62" s="9"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="5" t="s">
-        <v>261</v>
-      </c>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="7"/>
       <c r="L62" s="9"/>
@@ -5116,48 +5123,42 @@
       </c>
       <c r="P62" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>cp19c2</v>
+        <v>cp18b2</v>
       </c>
       <c r="Q62" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>cp19c2</v>
+        <v>cp18b2</v>
       </c>
       <c r="R62" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>262</v>
+      <c r="A63" s="13" t="s">
+        <v>260</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="7"/>
+      <c r="C63" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="D63" s="5" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="E63" s="8">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G63" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>264</v>
-      </c>
+      <c r="G63" s="9"/>
+      <c r="H63" s="7"/>
       <c r="I63" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K63" s="8">
-        <v>6</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="J63" s="9"/>
+      <c r="K63" s="7"/>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
@@ -5166,11 +5167,11 @@
       </c>
       <c r="P63" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>rn10a</v>
+        <v>cp19c2</v>
       </c>
       <c r="Q63" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>rn10a</v>
+        <v>cp19c2</v>
       </c>
       <c r="R63" s="6" t="s">
         <v>96</v>
@@ -5178,35 +5179,35 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="5" t="s">
-        <v>266</v>
+        <v>122</v>
       </c>
       <c r="E64" s="8">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>80</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>269</v>
+        <v>102</v>
       </c>
       <c r="K64" s="8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
@@ -5216,11 +5217,11 @@
       </c>
       <c r="P64" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>rn11a</v>
+        <v>rn10a</v>
       </c>
       <c r="Q64" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>rn11a</v>
+        <v>rn10a</v>
       </c>
       <c r="R64" s="6" t="s">
         <v>96</v>
@@ -5228,35 +5229,35 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="5" t="s">
-        <v>33</v>
+        <v>266</v>
       </c>
       <c r="E65" s="8">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K65" s="8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
@@ -5264,128 +5265,128 @@
       <c r="O65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P65" s="10" t="str">
+      <c r="P65" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>rn11a</v>
+      </c>
+      <c r="Q65" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>rn11a</v>
+      </c>
+      <c r="R65" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="8">
+        <v>2012</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K66" s="8">
+        <v>4</v>
+      </c>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P66" s="10" t="str">
         <f t="shared" si="2"/>
         <v>rn12b</v>
       </c>
-      <c r="Q65" s="10" t="str">
+      <c r="Q66" s="10" t="str">
         <f t="shared" si="3"/>
         <v>rn12b</v>
       </c>
-      <c r="R65" s="11"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
+      <c r="R66" s="11"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="5" t="s">
+      <c r="B67" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E67" s="8">
         <v>2013</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G66" s="5" t="s">
+      <c r="F67" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G67" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="H67" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="I67" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="J66" s="5" t="s">
+      <c r="J67" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="K66" s="8">
+      <c r="K67" s="8">
         <v>107</v>
       </c>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="6" t="s">
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="O66" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P66" s="12" t="str">
+      <c r="O67" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P67" s="12" t="str">
         <f t="shared" si="2"/>
         <v>rn13a</v>
       </c>
-      <c r="Q66" s="12" t="str">
+      <c r="Q67" s="12" t="str">
         <f t="shared" si="3"/>
         <v>rn13a</v>
       </c>
-      <c r="R66" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="E67" s="8">
-        <v>2013</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J67" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="K67" s="8">
-        <v>22</v>
-      </c>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P67" s="12" t="str">
-        <f t="shared" ref="P67:P98" si="4">HYPERLINK(CONCATENATE("", "https://orionzhou.github.io/public/multiqc/", A67, ".html"), A67)</f>
-        <v>rn13b</v>
-      </c>
-      <c r="Q67" s="12" t="str">
-        <f t="shared" ref="Q67:Q98" si="5">HYPERLINK(CONCATENATE("", "https://github.com/orionzhou/",O67,"/tree/master/data/11_qc/", A67, ""), A67)</f>
-        <v>rn13b</v>
-      </c>
       <c r="R67" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="5" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E68" s="8">
         <v>2013</v>
@@ -5394,19 +5395,19 @@
         <v>40</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K68" s="8">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
@@ -5415,12 +5416,12 @@
         <v>2</v>
       </c>
       <c r="P68" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>rn13c</v>
+        <f t="shared" ref="P68:P99" si="4">HYPERLINK(CONCATENATE("", "https://orionzhou.github.io/public/multiqc/", A68, ".html"), A68)</f>
+        <v>rn13b</v>
       </c>
       <c r="Q68" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>rn13c</v>
+        <f t="shared" ref="Q68:Q99" si="5">HYPERLINK(CONCATENATE("", "https://github.com/orionzhou/",O68,"/tree/master/data/11_qc/", A68, ""), A68)</f>
+        <v>rn13b</v>
       </c>
       <c r="R68" s="6" t="s">
         <v>96</v>
@@ -5428,14 +5429,14 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E69" s="8">
         <v>2013</v>
@@ -5444,19 +5445,19 @@
         <v>40</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>50</v>
+        <v>289</v>
       </c>
       <c r="K69" s="8">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
@@ -5464,26 +5465,28 @@
       <c r="O69" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P69" s="10" t="str">
+      <c r="P69" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>rn13d</v>
-      </c>
-      <c r="Q69" s="10" t="str">
+        <v>rn13c</v>
+      </c>
+      <c r="Q69" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>rn13d</v>
-      </c>
-      <c r="R69" s="11"/>
+        <v>rn13c</v>
+      </c>
+      <c r="R69" s="6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E70" s="8">
         <v>2013</v>
@@ -5492,19 +5495,19 @@
         <v>40</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K70" s="8">
-        <v>368</v>
+        <v>8</v>
       </c>
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
@@ -5514,24 +5517,24 @@
       </c>
       <c r="P70" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>rn13e</v>
+        <v>rn13d</v>
       </c>
       <c r="Q70" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>rn13e</v>
+        <v>rn13d</v>
       </c>
       <c r="R70" s="11"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="5" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E71" s="8">
         <v>2013</v>
@@ -5540,23 +5543,21 @@
         <v>40</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K71" s="8">
-        <v>12</v>
-      </c>
-      <c r="L71" s="6" t="s">
-        <v>113</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="L71" s="9"/>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
       <c r="O71" s="6" t="s">
@@ -5564,47 +5565,49 @@
       </c>
       <c r="P71" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>rn13f</v>
+        <v>rn13e</v>
       </c>
       <c r="Q71" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>rn13f</v>
+        <v>rn13e</v>
       </c>
       <c r="R71" s="11"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="5" t="s">
-        <v>237</v>
+        <v>302</v>
       </c>
       <c r="E72" s="8">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K72" s="8">
-        <v>503</v>
-      </c>
-      <c r="L72" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
       <c r="O72" s="6" t="s">
@@ -5612,24 +5615,24 @@
       </c>
       <c r="P72" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>rn14a</v>
+        <v>rn13f</v>
       </c>
       <c r="Q72" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>rn14a</v>
+        <v>rn13f</v>
       </c>
       <c r="R72" s="11"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="5" t="s">
-        <v>122</v>
+        <v>237</v>
       </c>
       <c r="E73" s="8">
         <v>2014</v>
@@ -5638,19 +5641,19 @@
         <v>40</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K73" s="8">
-        <v>7</v>
+        <v>503</v>
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
@@ -5660,24 +5663,24 @@
       </c>
       <c r="P73" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>rn14b</v>
+        <v>rn14a</v>
       </c>
       <c r="Q73" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>rn14b</v>
+        <v>rn14a</v>
       </c>
       <c r="R73" s="11"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="5" t="s">
-        <v>313</v>
+        <v>122</v>
       </c>
       <c r="E74" s="8">
         <v>2014</v>
@@ -5686,19 +5689,19 @@
         <v>40</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>80</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>316</v>
+        <v>50</v>
       </c>
       <c r="K74" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
@@ -5708,24 +5711,24 @@
       </c>
       <c r="P74" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>rn14c</v>
+        <v>rn14b</v>
       </c>
       <c r="Q74" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>rn14c</v>
+        <v>rn14b</v>
       </c>
       <c r="R74" s="11"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="5" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E75" s="8">
         <v>2014</v>
@@ -5734,19 +5737,19 @@
         <v>40</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>80</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>168</v>
+        <v>316</v>
       </c>
       <c r="K75" s="8">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -5756,24 +5759,24 @@
       </c>
       <c r="P75" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>rn14e</v>
+        <v>rn14c</v>
       </c>
       <c r="Q75" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>rn14e</v>
+        <v>rn14c</v>
       </c>
       <c r="R75" s="11"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E76" s="8">
         <v>2014</v>
@@ -5782,122 +5785,123 @@
         <v>40</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>11</v>
+        <v>320</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="K76" s="8">
-        <v>27</v>
-      </c>
-      <c r="L76" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="M76" s="6" t="s">
-        <v>113</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
       <c r="N76" s="9"/>
       <c r="O76" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P76" s="12" t="str">
+      <c r="P76" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>rn14e</v>
+      </c>
+      <c r="Q76" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>rn14e</v>
+      </c>
+      <c r="R76" s="11"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E77" s="8">
+        <v>2014</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K77" s="8">
+        <v>27</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="M77" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N77" s="9"/>
+      <c r="O77" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P77" s="12" t="str">
         <f t="shared" si="4"/>
         <v>rn14f</v>
       </c>
-      <c r="Q76" s="12" t="str">
+      <c r="Q77" s="12" t="str">
         <f t="shared" si="5"/>
         <v>rn14f</v>
       </c>
-      <c r="R76" s="6" t="s">
+      <c r="R77" s="6" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="E77" s="8">
-        <v>2014</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="K77" s="8">
-        <v>16</v>
-      </c>
-      <c r="L77" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P77" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>rn14g</v>
-      </c>
-      <c r="Q77" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>rn14g</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="5" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E78" s="8">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>278</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="H78" s="5"/>
       <c r="I78" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
       <c r="K78" s="8">
-        <v>380</v>
-      </c>
-      <c r="L78" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
       <c r="O78" s="6" t="s">
@@ -5905,23 +5909,23 @@
       </c>
       <c r="P78" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>rn15a</v>
+        <v>rn14g</v>
       </c>
       <c r="Q78" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>rn15a</v>
+        <v>rn14g</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="5" t="s">
-        <v>214</v>
+        <v>331</v>
       </c>
       <c r="E79" s="8">
         <v>2015</v>
@@ -5930,19 +5934,19 @@
         <v>40</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>336</v>
+        <v>278</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>338</v>
+        <v>278</v>
       </c>
       <c r="K79" s="8">
-        <v>8</v>
+        <v>380</v>
       </c>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
@@ -5952,65 +5956,63 @@
       </c>
       <c r="P79" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>rn15b</v>
+        <v>rn15a</v>
       </c>
       <c r="Q79" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>rn15b</v>
+        <v>rn15a</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="5" t="s">
-        <v>340</v>
+        <v>214</v>
       </c>
       <c r="E80" s="8">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="J80" s="5" t="s">
         <v>338</v>
       </c>
       <c r="K80" s="8">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
-      <c r="N80" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="N80" s="9"/>
       <c r="O80" s="6" t="s">
         <v>2</v>
       </c>
       <c r="P80" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>rn15c</v>
+        <v>rn15b</v>
       </c>
       <c r="Q80" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>rn15c</v>
+        <v>rn15b</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>2</v>
@@ -6020,25 +6022,25 @@
         <v>340</v>
       </c>
       <c r="E81" s="8">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J81" s="5" t="s">
         <v>338</v>
       </c>
       <c r="K81" s="8">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
@@ -6048,99 +6050,98 @@
       <c r="O81" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P81" s="12" t="str">
+      <c r="P81" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>rn15c</v>
+      </c>
+      <c r="Q81" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>rn15c</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E82" s="8">
+        <v>2015</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="K82" s="8">
+        <v>106</v>
+      </c>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O82" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P82" s="12" t="str">
         <f t="shared" si="4"/>
         <v>rn15d</v>
       </c>
-      <c r="Q81" s="12" t="str">
+      <c r="Q82" s="12" t="str">
         <f t="shared" si="5"/>
         <v>rn15d</v>
       </c>
-      <c r="R81" s="6" t="s">
+      <c r="R82" s="6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E82" s="8">
-        <v>2016</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="J82" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="K82" s="8">
-        <v>8</v>
-      </c>
-      <c r="L82" s="9"/>
-      <c r="M82" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="N82" s="9"/>
-      <c r="O82" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P82" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>rn15e</v>
-      </c>
-      <c r="Q82" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>rn15e</v>
-      </c>
-      <c r="R82" s="11"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="5" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="E83" s="8">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>102</v>
+        <v>353</v>
       </c>
       <c r="K83" s="8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L83" s="9"/>
       <c r="M83" s="6" t="s">
@@ -6152,24 +6153,24 @@
       </c>
       <c r="P83" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>rn15f</v>
+        <v>rn15e</v>
       </c>
       <c r="Q83" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>rn15f</v>
+        <v>rn15e</v>
       </c>
       <c r="R83" s="11"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="5" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="E84" s="8">
         <v>2015</v>
@@ -6178,67 +6179,69 @@
         <v>40</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>363</v>
+        <v>102</v>
       </c>
       <c r="K84" s="8">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="L84" s="9"/>
-      <c r="M84" s="9"/>
+      <c r="M84" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="N84" s="9"/>
       <c r="O84" s="6" t="s">
         <v>2</v>
       </c>
       <c r="P84" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>rn15g</v>
+        <v>rn15f</v>
       </c>
       <c r="Q84" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>rn15g</v>
+        <v>rn15f</v>
       </c>
       <c r="R84" s="11"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E85" s="8">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>80</v>
+        <v>362</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="K85" s="8">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
@@ -6246,28 +6249,26 @@
       <c r="O85" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P85" s="12" t="str">
+      <c r="P85" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>rn16b</v>
-      </c>
-      <c r="Q85" s="12" t="str">
+        <v>rn15g</v>
+      </c>
+      <c r="Q85" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>rn16b</v>
-      </c>
-      <c r="R85" s="6" t="s">
-        <v>96</v>
-      </c>
+        <v>rn15g</v>
+      </c>
+      <c r="R85" s="11"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="5" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E86" s="8">
         <v>2016</v>
@@ -6276,19 +6277,19 @@
         <v>40</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="I86" s="5" t="s">
         <v>80</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K86" s="8">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
@@ -6298,11 +6299,11 @@
       </c>
       <c r="P86" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>rn16c</v>
+        <v>rn16b</v>
       </c>
       <c r="Q86" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>rn16c</v>
+        <v>rn16b</v>
       </c>
       <c r="R86" s="6" t="s">
         <v>96</v>
@@ -6310,35 +6311,35 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="5" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E87" s="8">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>378</v>
+        <v>80</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K87" s="8">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
@@ -6346,207 +6347,205 @@
       <c r="O87" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P87" s="10" t="str">
+      <c r="P87" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>rn16c</v>
+      </c>
+      <c r="Q87" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>rn16c</v>
+      </c>
+      <c r="R87" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E88" s="8">
+        <v>2017</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K88" s="8">
+        <v>133</v>
+      </c>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P88" s="10" t="str">
         <f t="shared" si="4"/>
         <v>rn17a</v>
       </c>
-      <c r="Q87" s="10" t="str">
+      <c r="Q88" s="10" t="str">
         <f t="shared" si="5"/>
         <v>rn17a</v>
       </c>
-      <c r="R87" s="11"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A88" s="5" t="s">
+      <c r="R88" s="11"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="5" t="s">
+      <c r="B89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E89" s="8">
         <v>2017</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F89" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="G89" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="H88" s="5" t="s">
+      <c r="H89" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I88" s="5" t="s">
+      <c r="I89" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="J88" s="5" t="s">
+      <c r="J89" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="K88" s="8">
+      <c r="K89" s="8">
         <v>15</v>
       </c>
-      <c r="L88" s="6" t="s">
+      <c r="L89" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M88" s="6" t="s">
+      <c r="M89" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="N88" s="9"/>
-      <c r="O88" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P88" s="12" t="str">
+      <c r="N89" s="9"/>
+      <c r="O89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P89" s="12" t="str">
         <f t="shared" si="4"/>
         <v>rn17b</v>
       </c>
-      <c r="Q88" s="12" t="str">
+      <c r="Q89" s="12" t="str">
         <f t="shared" si="5"/>
         <v>rn17b</v>
       </c>
-      <c r="R88" s="6" t="s">
+      <c r="R89" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="5" t="s">
+      <c r="B90" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E90" s="8">
         <v>2017</v>
       </c>
-      <c r="F89" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G89" s="5" t="s">
+      <c r="F90" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="H89" s="5" t="s">
+      <c r="H90" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="I89" s="5" t="s">
+      <c r="I90" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="J89" s="5" t="s">
+      <c r="J90" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="K89" s="8">
+      <c r="K90" s="8">
         <v>8</v>
       </c>
-      <c r="L89" s="6" t="s">
+      <c r="L90" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M89" s="6" t="s">
+      <c r="M90" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="N89" s="9"/>
-      <c r="O89" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P89" s="12" t="str">
+      <c r="N90" s="9"/>
+      <c r="O90" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P90" s="12" t="str">
         <f t="shared" si="4"/>
         <v>rn17c</v>
       </c>
-      <c r="Q89" s="12" t="str">
+      <c r="Q90" s="12" t="str">
         <f t="shared" si="5"/>
         <v>rn17c</v>
       </c>
-      <c r="R89" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A90" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E90" s="8">
-        <v>2017</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="J90" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="K90" s="8">
-        <v>6</v>
-      </c>
-      <c r="L90" s="9"/>
-      <c r="M90" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="N90" s="9"/>
-      <c r="O90" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P90" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>rn17d</v>
-      </c>
-      <c r="Q90" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>rn17d</v>
-      </c>
       <c r="R90" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="5" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="E91" s="8">
         <v>2017</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="K91" s="8">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L91" s="9"/>
       <c r="M91" s="6" t="s">
@@ -6558,11 +6557,11 @@
       </c>
       <c r="P91" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>rn17e</v>
+        <v>rn17d</v>
       </c>
       <c r="Q91" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>rn17e</v>
+        <v>rn17d</v>
       </c>
       <c r="R91" s="6" t="s">
         <v>96</v>
@@ -6570,62 +6569,66 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="5" t="s">
-        <v>399</v>
+        <v>109</v>
       </c>
       <c r="E92" s="8">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="K92" s="8">
-        <v>1781</v>
+        <v>50</v>
       </c>
       <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
+      <c r="M92" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="N92" s="9"/>
       <c r="O92" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P92" s="10" t="str">
+      <c r="P92" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>rn18a</v>
-      </c>
-      <c r="Q92" s="10" t="str">
+        <v>rn17e</v>
+      </c>
+      <c r="Q92" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>rn18a</v>
-      </c>
-      <c r="R92" s="11"/>
+        <v>rn17e</v>
+      </c>
+      <c r="R92" s="6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E93" s="8">
         <v>2018</v>
@@ -6634,23 +6637,21 @@
         <v>40</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="K93" s="8">
-        <v>46</v>
-      </c>
-      <c r="L93" s="6" t="s">
-        <v>113</v>
-      </c>
+        <v>1781</v>
+      </c>
+      <c r="L93" s="9"/>
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
       <c r="O93" s="6" t="s">
@@ -6658,24 +6659,24 @@
       </c>
       <c r="P93" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>rn18b</v>
+        <v>rn18a</v>
       </c>
       <c r="Q93" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>rn18b</v>
+        <v>rn18a</v>
       </c>
       <c r="R93" s="11"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="5" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E94" s="8">
         <v>2018</v>
@@ -6684,48 +6685,48 @@
         <v>40</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="K94" s="8">
-        <v>623</v>
-      </c>
-      <c r="L94" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="M94" s="9"/>
-      <c r="N94" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="N94" s="9"/>
       <c r="O94" s="6" t="s">
         <v>2</v>
       </c>
       <c r="P94" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>rn18c</v>
+        <v>rn18b</v>
       </c>
       <c r="Q94" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>rn18c</v>
-      </c>
-      <c r="R94" s="6"/>
+        <v>rn18b</v>
+      </c>
+      <c r="R94" s="11"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="5" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E95" s="8">
         <v>2018</v>
@@ -6734,46 +6735,48 @@
         <v>40</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="K95" s="8">
-        <v>48</v>
+        <v>623</v>
       </c>
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
-      <c r="N95" s="9"/>
+      <c r="N95" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="O95" s="6" t="s">
         <v>2</v>
       </c>
       <c r="P95" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>rn18d</v>
+        <v>rn18c</v>
       </c>
       <c r="Q95" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>rn18d</v>
-      </c>
-      <c r="R95" s="11"/>
+        <v>rn18c</v>
+      </c>
+      <c r="R95" s="6"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="5" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E96" s="8">
         <v>2018</v>
@@ -6781,18 +6784,20 @@
       <c r="F96" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G96" s="14"/>
+      <c r="G96" s="5" t="s">
+        <v>418</v>
+      </c>
       <c r="H96" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="K96" s="8">
-        <v>1136</v>
+        <v>48</v>
       </c>
       <c r="L96" s="9"/>
       <c r="M96" s="9"/>
@@ -6802,24 +6807,24 @@
       </c>
       <c r="P96" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>rn18e</v>
+        <v>rn18d</v>
       </c>
       <c r="Q96" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>rn18e</v>
+        <v>rn18d</v>
       </c>
       <c r="R96" s="11"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="5" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E97" s="8">
         <v>2018</v>
@@ -6827,20 +6832,18 @@
       <c r="F97" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G97" s="5" t="s">
-        <v>428</v>
-      </c>
+      <c r="G97" s="14"/>
       <c r="H97" s="5" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>43</v>
+        <v>424</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="K97" s="8">
-        <v>20</v>
+        <v>1136</v>
       </c>
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
@@ -6850,145 +6853,145 @@
       </c>
       <c r="P97" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>rn18f</v>
+        <v>rn18e</v>
       </c>
       <c r="Q97" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>rn18f</v>
+        <v>rn18e</v>
       </c>
       <c r="R97" s="11"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="5" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E98" s="8">
         <v>2018</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>304</v>
+        <v>43</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="K98" s="8">
-        <v>90</v>
-      </c>
-      <c r="L98" s="6" t="s">
-        <v>113</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L98" s="9"/>
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
       <c r="O98" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P98" s="12" t="str">
+      <c r="P98" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>rn18g</v>
-      </c>
-      <c r="Q98" s="12" t="str">
+        <v>rn18f</v>
+      </c>
+      <c r="Q98" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>rn18g</v>
-      </c>
-      <c r="R98" s="6" t="s">
-        <v>96</v>
-      </c>
+        <v>rn18f</v>
+      </c>
+      <c r="R98" s="11"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E99" s="8">
         <v>2018</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>438</v>
+        <v>304</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>437</v>
+        <v>373</v>
       </c>
       <c r="K99" s="8">
-        <v>282</v>
-      </c>
-      <c r="L99" s="9"/>
+        <v>90</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="M99" s="9"/>
       <c r="N99" s="9"/>
       <c r="O99" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P99" s="10" t="str">
-        <f t="shared" ref="P99:P131" si="6">HYPERLINK(CONCATENATE("", "https://orionzhou.github.io/public/multiqc/", A99, ".html"), A99)</f>
-        <v>rn18h</v>
-      </c>
-      <c r="Q99" s="10" t="str">
-        <f t="shared" ref="Q99:Q131" si="7">HYPERLINK(CONCATENATE("", "https://github.com/orionzhou/",O99,"/tree/master/data/11_qc/", A99, ""), A99)</f>
-        <v>rn18h</v>
-      </c>
-      <c r="R99" s="11"/>
+      <c r="P99" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>rn18g</v>
+      </c>
+      <c r="Q99" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>rn18g</v>
+      </c>
+      <c r="R99" s="6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="5" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E100" s="8">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="K100" s="8">
-        <v>30</v>
+        <v>282</v>
       </c>
       <c r="L100" s="9"/>
       <c r="M100" s="9"/>
@@ -6996,28 +6999,30 @@
       <c r="O100" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P100" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>rn18i</v>
-      </c>
-      <c r="Q100" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>rn18i</v>
-      </c>
-      <c r="R100" s="6" t="s">
-        <v>96</v>
-      </c>
+      <c r="P100" s="10" t="str">
+        <f t="shared" ref="P100:P132" si="6">HYPERLINK(CONCATENATE("", "https://orionzhou.github.io/public/multiqc/", A100, ".html"), A100)</f>
+        <v>rn18h</v>
+      </c>
+      <c r="Q100" s="10" t="str">
+        <f t="shared" ref="Q100:Q132" si="7">HYPERLINK(CONCATENATE("", "https://github.com/orionzhou/",O100,"/tree/master/data/11_qc/", A100, ""), A100)</f>
+        <v>rn18h</v>
+      </c>
+      <c r="R100" s="11"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E101" s="8">
+        <v>2020</v>
+      </c>
       <c r="F101" s="5" t="s">
         <v>34</v>
       </c>
@@ -7042,151 +7047,147 @@
       <c r="O101" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P101" s="10" t="str">
+      <c r="P101" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>rn18i</v>
+      </c>
+      <c r="Q101" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>rn18i</v>
+      </c>
+      <c r="R101" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="9"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="K102" s="8">
+        <v>30</v>
+      </c>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P102" s="10" t="str">
         <f t="shared" si="6"/>
         <v>rn18i2</v>
       </c>
-      <c r="Q101" s="10" t="str">
+      <c r="Q102" s="10" t="str">
         <f t="shared" si="7"/>
         <v>rn18i2</v>
       </c>
-      <c r="R101" s="11"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A102" s="5" t="s">
+      <c r="R102" s="11"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="5" t="s">
+      <c r="B103" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="E102" s="8">
+      <c r="E103" s="8">
         <v>2018</v>
       </c>
-      <c r="F102" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G102" s="5" t="s">
+      <c r="F103" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G103" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="H102" s="5" t="s">
+      <c r="H103" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="I102" s="5" t="s">
+      <c r="I103" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="J102" s="5" t="s">
+      <c r="J103" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="K102" s="8">
+      <c r="K103" s="8">
         <v>6</v>
       </c>
-      <c r="L102" s="9"/>
-      <c r="M102" s="6" t="s">
+      <c r="L103" s="9"/>
+      <c r="M103" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="N102" s="9"/>
-      <c r="O102" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P102" s="12" t="str">
+      <c r="N103" s="9"/>
+      <c r="O103" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P103" s="12" t="str">
         <f t="shared" si="6"/>
         <v>rn18j</v>
       </c>
-      <c r="Q102" s="12" t="str">
+      <c r="Q103" s="12" t="str">
         <f t="shared" si="7"/>
         <v>rn18j</v>
       </c>
-      <c r="R102" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A103" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C103" s="7"/>
-      <c r="D103" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="E103" s="8">
-        <v>2018</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="I103" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="J103" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="K103" s="8"/>
-      <c r="L103" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="M103" s="9"/>
-      <c r="N103" s="9"/>
-      <c r="O103" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P103" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>rn18k</v>
-      </c>
-      <c r="Q103" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>rn18k</v>
-      </c>
       <c r="R103" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="5" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E104" s="8">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="K104" s="8">
-        <v>453</v>
-      </c>
-      <c r="L104" s="9"/>
+        <v>455</v>
+      </c>
+      <c r="K104" s="8"/>
+      <c r="L104" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
       <c r="O104" s="6" t="s">
@@ -7194,11 +7195,11 @@
       </c>
       <c r="P104" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>rn19a</v>
+        <v>rn18k</v>
       </c>
       <c r="Q104" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>rn19a</v>
+        <v>rn18k</v>
       </c>
       <c r="R104" s="6" t="s">
         <v>96</v>
@@ -7206,14 +7207,14 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="5" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E105" s="8">
         <v>2019</v>
@@ -7222,19 +7223,19 @@
         <v>40</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>43</v>
+        <v>460</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="K105" s="8">
-        <v>7</v>
+        <v>453</v>
       </c>
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
@@ -7242,26 +7243,28 @@
       <c r="O105" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P105" s="10" t="str">
+      <c r="P105" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>rn19b</v>
-      </c>
-      <c r="Q105" s="10" t="str">
+        <v>rn19a</v>
+      </c>
+      <c r="Q105" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>rn19b</v>
-      </c>
-      <c r="R105" s="11"/>
+        <v>rn19a</v>
+      </c>
+      <c r="R105" s="6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="5" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E106" s="8">
         <v>2019</v>
@@ -7270,19 +7273,19 @@
         <v>40</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>168</v>
+        <v>466</v>
       </c>
       <c r="K106" s="8">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
@@ -7292,24 +7295,24 @@
       </c>
       <c r="P106" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>rn19c</v>
+        <v>rn19b</v>
       </c>
       <c r="Q106" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>rn19c</v>
+        <v>rn19b</v>
       </c>
       <c r="R106" s="11"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="5" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E107" s="8">
         <v>2019</v>
@@ -7318,275 +7321,279 @@
         <v>40</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>361</v>
+        <v>470</v>
       </c>
       <c r="I107" s="5" t="s">
         <v>80</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>474</v>
+        <v>168</v>
       </c>
       <c r="K107" s="8">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L107" s="9"/>
-      <c r="M107" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="M107" s="9"/>
       <c r="N107" s="9"/>
       <c r="O107" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P107" s="12" t="str">
+      <c r="P107" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>rn19d</v>
-      </c>
-      <c r="Q107" s="12" t="str">
+        <v>rn19c</v>
+      </c>
+      <c r="Q107" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>rn19d</v>
-      </c>
-      <c r="R107" s="6" t="s">
-        <v>96</v>
-      </c>
+        <v>rn19c</v>
+      </c>
+      <c r="R107" s="11"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>119</v>
+        <v>471</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="5" t="s">
         <v>472</v>
       </c>
       <c r="E108" s="8">
+        <v>2019</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="K108" s="8">
+        <v>21</v>
+      </c>
+      <c r="L108" s="9"/>
+      <c r="M108" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N108" s="9"/>
+      <c r="O108" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P108" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>rn19d</v>
+      </c>
+      <c r="Q108" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>rn19d</v>
+      </c>
+      <c r="R108" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="E109" s="8">
         <v>2020</v>
       </c>
-      <c r="F108" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="9"/>
-      <c r="K108" s="9"/>
-      <c r="L108" s="9"/>
-      <c r="M108" s="9"/>
-      <c r="N108" s="9"/>
-      <c r="O108" s="5" t="s">
+      <c r="F109" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="P108" s="10" t="str">
+      <c r="P109" s="10" t="str">
         <f t="shared" si="6"/>
         <v>rn19d2</v>
       </c>
-      <c r="Q108" s="10" t="str">
+      <c r="Q109" s="10" t="str">
         <f t="shared" si="7"/>
         <v>rn19d2</v>
       </c>
-      <c r="R108" s="11"/>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A109" s="5" t="s">
+      <c r="R109" s="11"/>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="B109" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C109" s="7"/>
-      <c r="D109" s="5" t="s">
+      <c r="B110" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E109" s="8">
+      <c r="E110" s="8">
         <v>2019</v>
       </c>
-      <c r="F109" s="5" t="s">
+      <c r="F110" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G109" s="5" t="s">
+      <c r="G110" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="H109" s="5" t="s">
+      <c r="H110" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="I109" s="5" t="s">
+      <c r="I110" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J109" s="5" t="s">
+      <c r="J110" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="K109" s="8">
+      <c r="K110" s="8">
         <v>18</v>
       </c>
-      <c r="L109" s="9"/>
-      <c r="M109" s="6" t="s">
+      <c r="L110" s="9"/>
+      <c r="M110" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="N109" s="9"/>
-      <c r="O109" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P109" s="12" t="str">
+      <c r="N110" s="9"/>
+      <c r="O110" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P110" s="12" t="str">
         <f t="shared" si="6"/>
         <v>rn19f</v>
       </c>
-      <c r="Q109" s="12" t="str">
+      <c r="Q110" s="12" t="str">
         <f t="shared" si="7"/>
         <v>rn19f</v>
       </c>
-      <c r="R109" s="6" t="s">
+      <c r="R110" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A110" s="5" t="s">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="B110" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="5" t="s">
+      <c r="B111" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="E110" s="8">
+      <c r="E111" s="8">
         <v>2019</v>
       </c>
-      <c r="F110" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G110" s="5" t="s">
+      <c r="F111" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G111" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="H110" s="5" t="s">
+      <c r="H111" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="I110" s="7"/>
-      <c r="J110" s="5" t="s">
+      <c r="I111" s="7"/>
+      <c r="J111" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="K110" s="8">
+      <c r="K111" s="8">
         <v>10</v>
       </c>
-      <c r="L110" s="9"/>
-      <c r="M110" s="9"/>
-      <c r="N110" s="9"/>
-      <c r="O110" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P110" s="12" t="str">
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P111" s="12" t="str">
         <f t="shared" si="6"/>
         <v>rn19g</v>
       </c>
-      <c r="Q110" s="12" t="str">
+      <c r="Q111" s="12" t="str">
         <f t="shared" si="7"/>
         <v>rn19g</v>
       </c>
-      <c r="R110" s="6" t="s">
+      <c r="R111" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A111" s="5" t="s">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A112" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="B111" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C111" s="7"/>
-      <c r="D111" s="5" t="s">
+      <c r="B112" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="E111" s="8">
+      <c r="E112" s="8">
         <v>2019</v>
       </c>
-      <c r="F111" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G111" s="15" t="s">
+      <c r="F112" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G112" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="H111" s="5" t="s">
+      <c r="H112" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="I111" s="5" t="s">
+      <c r="I112" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J111" s="5" t="s">
+      <c r="J112" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="K111" s="8">
+      <c r="K112" s="8">
         <v>12</v>
       </c>
-      <c r="L111" s="9"/>
-      <c r="M111" s="6"/>
-      <c r="N111" s="9"/>
-      <c r="O111" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P111" s="12" t="str">
+      <c r="L112" s="9"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="9"/>
+      <c r="O112" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P112" s="12" t="str">
         <f t="shared" si="6"/>
         <v>rn19h</v>
       </c>
-      <c r="Q111" s="12" t="str">
+      <c r="Q112" s="12" t="str">
         <f t="shared" si="7"/>
         <v>rn19h</v>
       </c>
-      <c r="R111" s="6" t="s">
+      <c r="R112" s="6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A112" s="21" t="s">
-        <v>573</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C112" s="21"/>
-      <c r="D112" s="21" t="s">
-        <v>574</v>
-      </c>
-      <c r="E112" s="8">
-        <v>2019</v>
-      </c>
-      <c r="F112" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G112" s="21"/>
-      <c r="H112" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="I112" s="21"/>
-      <c r="J112" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="K112" s="8">
-        <v>942</v>
-      </c>
-      <c r="L112" s="21"/>
-      <c r="M112" s="11"/>
-      <c r="N112" s="21"/>
-      <c r="O112" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="P112" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>rn19i</v>
-      </c>
-      <c r="Q112" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>rn19i</v>
-      </c>
-      <c r="R112" s="26"/>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>2</v>
@@ -7603,14 +7610,14 @@
       </c>
       <c r="G113" s="21"/>
       <c r="H113" s="21" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I113" s="21"/>
       <c r="J113" s="21" t="s">
         <v>130</v>
       </c>
       <c r="K113" s="8">
-        <v>304</v>
+        <v>942</v>
       </c>
       <c r="L113" s="21"/>
       <c r="M113" s="11"/>
@@ -7620,69 +7627,61 @@
       </c>
       <c r="P113" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>rn19i2</v>
+        <v>rn19i</v>
       </c>
       <c r="Q113" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>rn19i2</v>
+        <v>rn19i</v>
       </c>
       <c r="R113" s="26"/>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A114" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C114" s="7"/>
-      <c r="D114" s="5" t="s">
-        <v>431</v>
+      <c r="A114" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21" t="s">
+        <v>574</v>
       </c>
       <c r="E114" s="8">
-        <v>2020</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="J114" s="5" t="s">
-        <v>102</v>
+        <v>2019</v>
+      </c>
+      <c r="F114" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="I114" s="21"/>
+      <c r="J114" s="21" t="s">
+        <v>130</v>
       </c>
       <c r="K114" s="8">
-        <v>291</v>
-      </c>
-      <c r="L114" s="9"/>
-      <c r="M114" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="N114" s="9"/>
-      <c r="O114" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="L114" s="21"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="21"/>
+      <c r="O114" s="11" t="s">
         <v>2</v>
       </c>
       <c r="P114" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>rn20a</v>
+        <v>rn19i2</v>
       </c>
       <c r="Q114" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>rn20a</v>
-      </c>
-      <c r="R114" s="6" t="s">
-        <v>96</v>
-      </c>
+        <v>rn19i2</v>
+      </c>
+      <c r="R114" s="26"/>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>2</v>
@@ -7698,14 +7697,20 @@
         <v>34</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
-      <c r="K115" s="7"/>
+        <v>490</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K115" s="8">
+        <v>291</v>
+      </c>
       <c r="L115" s="9"/>
       <c r="M115" s="6" t="s">
         <v>113</v>
@@ -7716,11 +7721,11 @@
       </c>
       <c r="P115" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>rn20a2</v>
+        <v>rn20a</v>
       </c>
       <c r="Q115" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>rn20a2</v>
+        <v>rn20a</v>
       </c>
       <c r="R115" s="6" t="s">
         <v>96</v>
@@ -7728,14 +7733,14 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="5" t="s">
-        <v>495</v>
+        <v>431</v>
       </c>
       <c r="E116" s="8">
         <v>2020</v>
@@ -7744,15 +7749,13 @@
         <v>34</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="H116" s="7"/>
-      <c r="I116" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J116" s="5" t="s">
-        <v>102</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
       <c r="K116" s="7"/>
       <c r="L116" s="9"/>
       <c r="M116" s="6" t="s">
@@ -7764,24 +7767,26 @@
       </c>
       <c r="P116" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>rn20a3</v>
+        <v>rn20a2</v>
       </c>
       <c r="Q116" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>rn20a3</v>
-      </c>
-      <c r="R116" s="6"/>
+        <v>rn20a2</v>
+      </c>
+      <c r="R116" s="6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="5" t="s">
-        <v>431</v>
+        <v>495</v>
       </c>
       <c r="E117" s="8">
         <v>2020</v>
@@ -7790,79 +7795,79 @@
         <v>34</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>498</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="H117" s="7"/>
       <c r="I117" s="5" t="s">
-        <v>499</v>
+        <v>43</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="K117" s="7"/>
-      <c r="L117" s="6" t="s">
+      <c r="L117" s="9"/>
+      <c r="M117" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M117" s="9"/>
       <c r="N117" s="9"/>
       <c r="O117" s="6" t="s">
         <v>2</v>
       </c>
       <c r="P117" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>rn20b</v>
+        <v>rn20a3</v>
       </c>
       <c r="Q117" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>rn20b</v>
-      </c>
-      <c r="R117" s="6" t="s">
-        <v>96</v>
-      </c>
+        <v>rn20a3</v>
+      </c>
+      <c r="R117" s="6"/>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="E118" s="8">
+        <v>2020</v>
+      </c>
       <c r="F118" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>117</v>
+        <v>497</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>15</v>
+        <v>498</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="K118" s="7"/>
-      <c r="L118" s="6"/>
-      <c r="M118" s="6"/>
-      <c r="N118" s="5" t="s">
+      <c r="L118" s="6" t="s">
         <v>113</v>
       </c>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
       <c r="O118" s="6" t="s">
         <v>2</v>
       </c>
       <c r="P118" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>rn20b2</v>
+        <v>rn20b</v>
       </c>
       <c r="Q118" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>rn20b2</v>
+        <v>rn20b</v>
       </c>
       <c r="R118" s="6" t="s">
         <v>96</v>
@@ -7870,47 +7875,45 @@
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C119" s="7"/>
+      <c r="C119" s="9"/>
       <c r="D119" s="7"/>
-      <c r="E119" s="8">
-        <v>2020</v>
-      </c>
+      <c r="E119" s="7"/>
       <c r="F119" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>503</v>
+        <v>117</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>504</v>
+        <v>15</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="K119" s="8">
-        <v>250</v>
-      </c>
-      <c r="L119" s="9"/>
-      <c r="M119" s="9"/>
-      <c r="N119" s="9"/>
+        <v>102</v>
+      </c>
+      <c r="K119" s="7"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="O119" s="6" t="s">
         <v>2</v>
       </c>
       <c r="P119" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>rn20c</v>
+        <v>rn20b2</v>
       </c>
       <c r="Q119" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>rn20c</v>
+        <v>rn20b2</v>
       </c>
       <c r="R119" s="6" t="s">
         <v>96</v>
@@ -7918,35 +7921,35 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C120" s="7"/>
-      <c r="D120" s="5" t="s">
-        <v>122</v>
-      </c>
+      <c r="D120" s="7"/>
       <c r="E120" s="8">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G120" s="14"/>
+      <c r="G120" s="5" t="s">
+        <v>503</v>
+      </c>
       <c r="H120" s="5" t="s">
-        <v>239</v>
+        <v>504</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>508</v>
+        <v>444</v>
       </c>
       <c r="K120" s="8">
-        <v>636</v>
-      </c>
-      <c r="L120" s="6"/>
+        <v>250</v>
+      </c>
+      <c r="L120" s="9"/>
       <c r="M120" s="9"/>
       <c r="N120" s="9"/>
       <c r="O120" s="6" t="s">
@@ -7954,11 +7957,11 @@
       </c>
       <c r="P120" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>rn20d</v>
+        <v>rn20c</v>
       </c>
       <c r="Q120" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>rn20d</v>
+        <v>rn20c</v>
       </c>
       <c r="R120" s="6" t="s">
         <v>96</v>
@@ -7966,14 +7969,14 @@
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>119</v>
+        <v>506</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="5" t="s">
-        <v>510</v>
+        <v>122</v>
       </c>
       <c r="E121" s="8">
         <v>2019</v>
@@ -7981,114 +7984,110 @@
       <c r="F121" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G121" s="5" t="s">
-        <v>511</v>
-      </c>
+      <c r="G121" s="14"/>
       <c r="H121" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="I121" s="9"/>
-      <c r="J121" s="9"/>
-      <c r="K121" s="9"/>
-      <c r="L121" s="9"/>
+      <c r="I121" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="K121" s="8">
+        <v>636</v>
+      </c>
+      <c r="L121" s="6"/>
       <c r="M121" s="9"/>
       <c r="N121" s="9"/>
-      <c r="O121" s="5" t="s">
+      <c r="O121" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P121" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>rn20d</v>
+      </c>
+      <c r="Q121" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>rn20d</v>
+      </c>
+      <c r="R121" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A122" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="P121" s="10" t="str">
+      <c r="C122" s="7"/>
+      <c r="D122" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="E122" s="8">
+        <v>2019</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="9"/>
+      <c r="O122" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="P122" s="10" t="str">
         <f t="shared" si="6"/>
         <v>rn20d2</v>
       </c>
-      <c r="Q121" s="10" t="str">
+      <c r="Q122" s="10" t="str">
         <f t="shared" si="7"/>
         <v>rn20d2</v>
       </c>
-      <c r="R121" s="6"/>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A122" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C122" s="7"/>
-      <c r="D122" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E122" s="8">
-        <v>2019</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="J122" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="K122" s="8">
-        <v>467</v>
-      </c>
-      <c r="L122" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="M122" s="9"/>
-      <c r="N122" s="9"/>
-      <c r="O122" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P122" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>rn20d3</v>
-      </c>
-      <c r="Q122" s="12" t="str">
-        <f t="shared" si="7"/>
-        <v>rn20d3</v>
-      </c>
-      <c r="R122" s="6" t="s">
-        <v>96</v>
-      </c>
+      <c r="R122" s="6"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="5" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E123" s="8">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>50</v>
+        <v>379</v>
       </c>
       <c r="K123" s="8">
-        <v>6</v>
+        <v>467</v>
       </c>
       <c r="L123" s="6" t="s">
         <v>113</v>
@@ -8100,11 +8099,11 @@
       </c>
       <c r="P123" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>rn20e</v>
+        <v>rn20d3</v>
       </c>
       <c r="Q123" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>rn20e</v>
+        <v>rn20d3</v>
       </c>
       <c r="R123" s="6" t="s">
         <v>96</v>
@@ -8112,47 +8111,51 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="B124" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="5" t="s">
-        <v>519</v>
+        <v>109</v>
       </c>
       <c r="E124" s="8">
         <v>2020</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>521</v>
+        <v>293</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>59</v>
+        <v>517</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="K124" s="7"/>
-      <c r="L124" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="K124" s="8">
+        <v>6</v>
+      </c>
+      <c r="L124" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="M124" s="9"/>
       <c r="N124" s="9"/>
-      <c r="O124" s="5" t="s">
+      <c r="O124" s="6" t="s">
         <v>2</v>
       </c>
       <c r="P124" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>rn20f</v>
+        <v>rn20e</v>
       </c>
       <c r="Q124" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>rn20f</v>
+        <v>rn20e</v>
       </c>
       <c r="R124" s="6" t="s">
         <v>96</v>
@@ -8160,14 +8163,14 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="5" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E125" s="8">
         <v>2020</v>
@@ -8176,20 +8179,18 @@
         <v>40</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="I125" s="5" t="s">
         <v>59</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="K125" s="5">
-        <v>4</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="K125" s="7"/>
       <c r="L125" s="9"/>
       <c r="M125" s="9"/>
       <c r="N125" s="9"/>
@@ -8198,11 +8199,11 @@
       </c>
       <c r="P125" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>rn20g</v>
+        <v>rn20f</v>
       </c>
       <c r="Q125" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>rn20g</v>
+        <v>rn20f</v>
       </c>
       <c r="R125" s="6" t="s">
         <v>96</v>
@@ -8210,32 +8211,36 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="5" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E126" s="8">
         <v>2020</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="J126" s="9"/>
-      <c r="K126" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="K126" s="5">
+        <v>4</v>
+      </c>
       <c r="L126" s="9"/>
       <c r="M126" s="9"/>
       <c r="N126" s="9"/>
@@ -8244,11 +8249,11 @@
       </c>
       <c r="P126" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>rn20h</v>
+        <v>rn20g</v>
       </c>
       <c r="Q126" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>rn20h</v>
+        <v>rn20g</v>
       </c>
       <c r="R126" s="6" t="s">
         <v>96</v>
@@ -8256,33 +8261,31 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="5" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E127" s="8">
         <v>2020</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J127" s="5" t="s">
-        <v>537</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="J127" s="9"/>
       <c r="K127" s="7"/>
       <c r="L127" s="9"/>
       <c r="M127" s="9"/>
@@ -8292,11 +8295,11 @@
       </c>
       <c r="P127" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>rn20i</v>
+        <v>rn20h</v>
       </c>
       <c r="Q127" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>rn20i</v>
+        <v>rn20h</v>
       </c>
       <c r="R127" s="6" t="s">
         <v>96</v>
@@ -8304,37 +8307,35 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="5" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="E128" s="8">
         <v>2020</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G128" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>535</v>
+      </c>
       <c r="H128" s="5" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>541</v>
+        <v>59</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="K128" s="5">
-        <v>27</v>
-      </c>
-      <c r="L128" s="5" t="s">
-        <v>113</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="K128" s="7"/>
+      <c r="L128" s="9"/>
       <c r="M128" s="9"/>
       <c r="N128" s="9"/>
       <c r="O128" s="5" t="s">
@@ -8342,196 +8343,216 @@
       </c>
       <c r="P128" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>rn20j</v>
+        <v>rn20i</v>
       </c>
       <c r="Q128" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>rn20j</v>
+        <v>rn20i</v>
       </c>
       <c r="R128" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A129" s="21" t="s">
-        <v>584</v>
-      </c>
-      <c r="B129" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C129" s="21"/>
-      <c r="D129" s="21" t="s">
-        <v>359</v>
+      <c r="A129" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="7"/>
+      <c r="D129" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E129" s="8">
         <v>2020</v>
       </c>
-      <c r="F129" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G129" s="21" t="s">
-        <v>585</v>
-      </c>
-      <c r="H129" s="21" t="s">
-        <v>587</v>
-      </c>
-      <c r="I129" s="21" t="s">
-        <v>586</v>
-      </c>
-      <c r="J129" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="K129" s="21"/>
-      <c r="L129" s="21"/>
-      <c r="M129" s="21" t="s">
+      <c r="F129" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="K129" s="5">
+        <v>27</v>
+      </c>
+      <c r="L129" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="N129" s="21"/>
-      <c r="O129" s="21" t="s">
+      <c r="M129" s="9"/>
+      <c r="N129" s="9"/>
+      <c r="O129" s="5" t="s">
         <v>2</v>
       </c>
       <c r="P129" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>rn20k</v>
+        <v>rn20j</v>
       </c>
       <c r="Q129" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>rn20k</v>
-      </c>
-      <c r="R129" s="11"/>
+        <v>rn20j</v>
+      </c>
+      <c r="R129" s="6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A130" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="C130" s="7"/>
-      <c r="D130" s="5"/>
+      <c r="A130" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="21"/>
+      <c r="D130" s="21" t="s">
+        <v>359</v>
+      </c>
       <c r="E130" s="8">
         <v>2020</v>
       </c>
-      <c r="F130" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="I130" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="J130" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K130" s="7"/>
-      <c r="L130" s="9"/>
-      <c r="M130" s="5" t="s">
+      <c r="F130" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G130" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="H130" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="I130" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="J130" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="K130" s="21"/>
+      <c r="L130" s="21"/>
+      <c r="M130" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="N130" s="9"/>
-      <c r="O130" s="5" t="s">
+      <c r="N130" s="21"/>
+      <c r="O130" s="21" t="s">
         <v>2</v>
       </c>
       <c r="P130" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>cg20a</v>
+        <v>rn20k</v>
       </c>
       <c r="Q130" s="12" t="str">
         <f t="shared" si="7"/>
-        <v>cg20a</v>
+        <v>rn20k</v>
       </c>
       <c r="R130" s="11"/>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C131" s="7"/>
-      <c r="D131" s="5" t="s">
-        <v>548</v>
-      </c>
+      <c r="D131" s="5"/>
       <c r="E131" s="8">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G131" s="5" t="s">
-        <v>549</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G131" s="5"/>
       <c r="H131" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="I131" s="9"/>
-      <c r="J131" s="9"/>
+        <v>545</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="K131" s="7"/>
       <c r="L131" s="9"/>
-      <c r="M131" s="9"/>
+      <c r="M131" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="N131" s="9"/>
       <c r="O131" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P131" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>cg20a</v>
+      </c>
+      <c r="Q131" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>cg20a</v>
+      </c>
+      <c r="R131" s="11"/>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A132" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="P131" s="10" t="str">
+      <c r="C132" s="7"/>
+      <c r="D132" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E132" s="8">
+        <v>2019</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="7"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="9"/>
+      <c r="O132" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="P132" s="10" t="str">
         <f t="shared" si="6"/>
         <v>xx19</v>
       </c>
-      <c r="Q131" s="10" t="str">
+      <c r="Q132" s="10" t="str">
         <f t="shared" si="7"/>
         <v>xx19</v>
       </c>
-      <c r="R131" s="11"/>
+      <c r="R132" s="11"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{8E992A79-4279-4BA5-8ACA-2AFCD1FF395F}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A1ED0A0E-827F-4174-B807-FE6BA2FB73B4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
-        <filterColumn colId="11">
+        <filterColumn colId="14">
           <filters>
-            <filter val="T"/>
+            <filter val="rnaseq"/>
           </filters>
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{32787278-35C0-4446-BB99-F1281F67D683}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{0C26BD42-2CBD-4138-9861-6D4EEF11FB87}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
-        <filterColumn colId="14">
-          <filters>
-            <filter val="chipseq"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{610B8B3C-8CF9-4F7D-B2D6-4264B7FE77F8}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
-        <filterColumn colId="14">
-          <filters>
-            <filter val="atacseq"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{03A8949B-C78E-4E7F-9412-8C36B64964FE}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
-        <filterColumn colId="14">
-          <filters>
-            <filter val="dnaseq"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{C21AEDBF-7EB1-42BD-A502-AF69742EFC77}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
-        <filterColumn colId="12">
+        <filterColumn colId="13">
           <filters>
             <filter val="T"/>
           </filters>
@@ -8548,73 +8569,103 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{0C26BD42-2CBD-4138-9861-6D4EEF11FB87}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{C21AEDBF-7EB1-42BD-A502-AF69742EFC77}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
-        <filterColumn colId="13">
+        <filterColumn colId="12">
           <filters>
             <filter val="T"/>
           </filters>
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{A1ED0A0E-827F-4174-B807-FE6BA2FB73B4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{03A8949B-C78E-4E7F-9412-8C36B64964FE}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
         <filterColumn colId="14">
           <filters>
-            <filter val="rnaseq"/>
+            <filter val="dnaseq"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{610B8B3C-8CF9-4F7D-B2D6-4264B7FE77F8}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
+        <filterColumn colId="14">
+          <filters>
+            <filter val="atacseq"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{32787278-35C0-4446-BB99-F1281F67D683}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
+        <filterColumn colId="14">
+          <filters>
+            <filter val="chipseq"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{8E992A79-4279-4BA5-8ACA-2AFCD1FF395F}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:R127" xr:uid="{00000000-0000-0000-0000-000000000000}">
+        <filterColumn colId="11">
+          <filters>
+            <filter val="T"/>
           </filters>
         </filterColumn>
       </autoFilter>
     </customSheetView>
   </customSheetViews>
-  <conditionalFormatting sqref="L1:N131">
+  <conditionalFormatting sqref="L1:N132">
     <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B131 O2:O131">
+  <conditionalFormatting sqref="B1:B132 O2:O132">
     <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"rnaseq"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B131 O2:O131">
+  <conditionalFormatting sqref="B1:B132 O2:O132">
     <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"chipseq"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B131 O2:O131">
+  <conditionalFormatting sqref="B1:B132 O2:O132">
     <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"dnaseq"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B131 O2:O131">
+  <conditionalFormatting sqref="B1:B132 O2:O132">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"dapseq"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B131 O2:O131">
+  <conditionalFormatting sqref="B1:B132 O2:O132">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"methylseq"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B131 O2:O131">
+  <conditionalFormatting sqref="B1:B132 O2:O132">
     <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"atacseq"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B131 O2:O131">
+  <conditionalFormatting sqref="B1:B132 O2:O132">
     <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"smrnaseq"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R131">
+  <conditionalFormatting sqref="R1:R132">
     <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R131">
+  <conditionalFormatting sqref="R1:R132">
     <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
       <formula>"T"</formula>
     </cfRule>
